--- a/biology/Médecine/1557_en_santé_et_médecine/1557_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1557_en_santé_et_médecine/1557_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1557_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1557_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1557 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1557_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1557_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Épidémie de grippe en Europe, qui sera « rapportée par des médecins français, allemands, espagnols et italiens [et dont] la mortalité élevée et l'extrême contagiosité [aur]ont fortement marqué les chroniqueurs[1] ».
-La faculté de médecine de l'université d'Aix, fondée dès 1413 par Louis II, comte de Provence, commence seulement à fonctionner[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Épidémie de grippe en Europe, qui sera « rapportée par des médecins français, allemands, espagnols et italiens [et dont] la mortalité élevée et l'extrême contagiosité [aur]ont fortement marqué les chroniqueurs ».
+La faculté de médecine de l'université d'Aix, fondée dès 1413 par Louis II, comte de Provence, commence seulement à fonctionner.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1557_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1557_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La maladrerie Saint-Germain est remplacée par un hospice « pour les malades aliénés, vénériens ou teigneux » connu sous le nom de « Petites Maisons », établissement qui,  au XIXe siècle, alors réservé aux couples âgés, deviendra « hospice des ménages », avant d'être transféré à Issy-les-Moulineaux en 1863 sous le nom d'« hôpital Corentin-Celton[3] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La maladrerie Saint-Germain est remplacée par un hospice « pour les malades aliénés, vénériens ou teigneux » connu sous le nom de « Petites Maisons », établissement qui,  au XIXe siècle, alors réservé aux couples âgés, deviendra « hospice des ménages », avant d'être transféré à Issy-les-Moulineaux en 1863 sous le nom d'« hôpital Corentin-Celton ».</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1557_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1557_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,11 +588,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Édition, à Anvers, chez Jean Loe et sous le titre de Histoire des plantes, de la traduction française, par Charles de L'Écluse, du Cruydeboeck de Rembert Dodoens, paru en flamand en 1554[4].
-Dans le cadre de la querelle qui oppose les deux corporations médicales[5], l'apothicaire Pierre Brailler publie contre le médecin Lisset Benancio une Déclaration des abus et ignorances des médecins[6].
-Francisco Martínez de Castrillo publie son « Dialogue bref et concis sur la denture et sur le merveilleux chef-d’œuvre qu'est la bouche » (Coloquio breve y compendioso sobre la materia de la dentadura y maravillosa obra de la boca[7]), premier traité d'odontologie rédigé en espagnol[8],[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Édition, à Anvers, chez Jean Loe et sous le titre de Histoire des plantes, de la traduction française, par Charles de L'Écluse, du Cruydeboeck de Rembert Dodoens, paru en flamand en 1554.
+Dans le cadre de la querelle qui oppose les deux corporations médicales, l'apothicaire Pierre Brailler publie contre le médecin Lisset Benancio une Déclaration des abus et ignorances des médecins.
+Francisco Martínez de Castrillo publie son « Dialogue bref et concis sur la denture et sur le merveilleux chef-d’œuvre qu'est la bouche » (Coloquio breve y compendioso sobre la materia de la dentadura y maravillosa obra de la boca), premier traité d'odontologie rédigé en espagnol,.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1557_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1557_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernardo Vargas Machuca (es) (mort en 1622), homme de guerre, naturaliste et vétérinaire espagnol, auteur en 1599 d'une Milicia y descripción de las Indias qui traite, entre autres sujets, des connaissances médicales et des remèdes nécessaires en campagne[10],[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernardo Vargas Machuca (es) (mort en 1622), homme de guerre, naturaliste et vétérinaire espagnol, auteur en 1599 d'une Milicia y descripción de las Indias qui traite, entre autres sujets, des connaissances médicales et des remèdes nécessaires en campagne,.
 </t>
         </is>
       </c>
